--- a/TestData/MemberManagement/TestMemberManagement.xlsx
+++ b/TestData/MemberManagement/TestMemberManagement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\MemberManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27DF73A-EA24-4107-8BD9-0059D7B32CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6807FB92-0168-47D5-8453-12C097445151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -120,136 +120,124 @@
     <t>Karigar</t>
   </si>
   <si>
-    <t>TestUser-26</t>
-  </si>
-  <si>
-    <t>TestUser-27</t>
-  </si>
-  <si>
-    <t>TestUser-28</t>
-  </si>
-  <si>
-    <t>TestUser-29</t>
-  </si>
-  <si>
-    <t>TestUser-30</t>
-  </si>
-  <si>
-    <t>user.testAuto037</t>
-  </si>
-  <si>
-    <t>user.testAuto038</t>
-  </si>
-  <si>
-    <t>user.testAuto039</t>
-  </si>
-  <si>
-    <t>user.testAuto040</t>
-  </si>
-  <si>
-    <t>user.testAuto041</t>
-  </si>
-  <si>
-    <t>user.testAuto042</t>
-  </si>
-  <si>
-    <t>UserTest-37</t>
-  </si>
-  <si>
-    <t>UserTest-38</t>
-  </si>
-  <si>
-    <t>UserTest-39</t>
-  </si>
-  <si>
-    <t>UserTest-40</t>
-  </si>
-  <si>
-    <t>UserTest-41</t>
-  </si>
-  <si>
-    <t>UserTest-42</t>
-  </si>
-  <si>
-    <t>userEdit.auto31</t>
-  </si>
-  <si>
-    <t>userEdit.auto32</t>
-  </si>
-  <si>
-    <t>userEdit.auto33</t>
-  </si>
-  <si>
-    <t>userEdit.auto34</t>
-  </si>
-  <si>
-    <t>userEdit.auto35</t>
-  </si>
-  <si>
-    <t>TestUser-31</t>
-  </si>
-  <si>
-    <t>TestUser-32</t>
-  </si>
-  <si>
-    <t>TestUser-33</t>
-  </si>
-  <si>
-    <t>TestUser-34</t>
-  </si>
-  <si>
     <t>TestUser-35</t>
   </si>
   <si>
-    <t>userPass.auto26</t>
-  </si>
-  <si>
-    <t>userPass.auto27</t>
-  </si>
-  <si>
-    <t>userPass.auto28</t>
-  </si>
-  <si>
-    <t>userPass.auto29</t>
-  </si>
-  <si>
-    <t>userPass.auto30</t>
-  </si>
-  <si>
-    <t>user_logintest.auto25</t>
-  </si>
-  <si>
-    <t>user_logintest.auto26</t>
-  </si>
-  <si>
-    <t>user_logintest.auto27</t>
-  </si>
-  <si>
-    <t>user_logintest.auto28</t>
-  </si>
-  <si>
-    <t>user_logintest.auto29</t>
-  </si>
-  <si>
-    <t>user_logintest.auto30</t>
-  </si>
-  <si>
-    <t>UserTest-25</t>
-  </si>
-  <si>
-    <t>UserTest-26</t>
-  </si>
-  <si>
-    <t>UserTest-27</t>
-  </si>
-  <si>
-    <t>UserTest-28</t>
-  </si>
-  <si>
-    <t>UserTest-29</t>
-  </si>
-  <si>
-    <t>UserTest-30</t>
+    <t>user.testAuto043</t>
+  </si>
+  <si>
+    <t>user.testAuto044</t>
+  </si>
+  <si>
+    <t>user.testAuto045</t>
+  </si>
+  <si>
+    <t>user.testAuto046</t>
+  </si>
+  <si>
+    <t>user.testAuto047</t>
+  </si>
+  <si>
+    <t>user.testAuto048</t>
+  </si>
+  <si>
+    <t>userEdit.auto36</t>
+  </si>
+  <si>
+    <t>userEdit.auto37</t>
+  </si>
+  <si>
+    <t>userEdit.auto38</t>
+  </si>
+  <si>
+    <t>userEdit.auto39</t>
+  </si>
+  <si>
+    <t>userEdit.auto40</t>
+  </si>
+  <si>
+    <t>userPass.auto35</t>
+  </si>
+  <si>
+    <t>userPass.auto36</t>
+  </si>
+  <si>
+    <t>userPass.auto37</t>
+  </si>
+  <si>
+    <t>userPass.auto38</t>
+  </si>
+  <si>
+    <t>userPass.auto39</t>
+  </si>
+  <si>
+    <t>TestUser-36</t>
+  </si>
+  <si>
+    <t>TestUser-37</t>
+  </si>
+  <si>
+    <t>TestUser-38</t>
+  </si>
+  <si>
+    <t>TestUser-39</t>
+  </si>
+  <si>
+    <t>TestUser-40</t>
+  </si>
+  <si>
+    <t>UserTest-43</t>
+  </si>
+  <si>
+    <t>UserTest-44</t>
+  </si>
+  <si>
+    <t>UserTest-45</t>
+  </si>
+  <si>
+    <t>UserTest-46</t>
+  </si>
+  <si>
+    <t>UserTest-47</t>
+  </si>
+  <si>
+    <t>UserTest-48</t>
+  </si>
+  <si>
+    <t>user_logintest.auto31</t>
+  </si>
+  <si>
+    <t>UserTest-31</t>
+  </si>
+  <si>
+    <t>UserTest-32</t>
+  </si>
+  <si>
+    <t>UserTest-33</t>
+  </si>
+  <si>
+    <t>UserTest-34</t>
+  </si>
+  <si>
+    <t>UserTest-35</t>
+  </si>
+  <si>
+    <t>UserTest-36</t>
+  </si>
+  <si>
+    <t>user_logintest.auto32</t>
+  </si>
+  <si>
+    <t>user_logintest.auto33</t>
+  </si>
+  <si>
+    <t>user_logintest.auto34</t>
+  </si>
+  <si>
+    <t>user_logintest.auto35</t>
+  </si>
+  <si>
+    <t>user_logintest.auto36</t>
   </si>
 </sst>
 </file>
@@ -587,7 +575,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,16 +606,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>9800000015</v>
+        <v>9800000021</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -638,16 +626,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>9800000016</v>
+        <v>9800000022</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -658,16 +646,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>9800000017</v>
+        <v>9800000023</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -678,16 +666,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>9800000018</v>
+        <v>9800000024</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -698,16 +686,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>9800000019</v>
+        <v>9800000025</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -718,16 +706,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>9800000020</v>
+        <v>9800000026</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -788,16 +776,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>9800000010</v>
+        <v>9800000015</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -817,16 +805,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>9800000011</v>
+        <v>9800000016</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -846,16 +834,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>9800000012</v>
+        <v>9800000017</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -875,16 +863,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>9800000013</v>
+        <v>9800000018</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -904,16 +892,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>9800000014</v>
+        <v>9800000019</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -943,7 +931,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>9800000010</v>
@@ -999,13 +987,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>9800000011</v>
@@ -1022,13 +1010,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>9800000012</v>
@@ -1045,13 +1033,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>9800000013</v>
@@ -1068,13 +1056,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>9800000014</v>
@@ -1104,7 +1092,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,13 +1124,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>9800000015</v>
@@ -1156,13 +1144,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>9800000016</v>
@@ -1176,13 +1164,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>9800000017</v>
@@ -1196,13 +1184,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>9800000018</v>
@@ -1216,13 +1204,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>9800000019</v>
@@ -1236,13 +1224,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>9800000020</v>

--- a/TestData/MemberManagement/TestMemberManagement.xlsx
+++ b/TestData/MemberManagement/TestMemberManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\MemberManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6807FB92-0168-47D5-8453-12C097445151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4D18F5-E386-4F5F-9D7D-5560D3D4D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,70 +120,88 @@
     <t>Karigar</t>
   </si>
   <si>
-    <t>TestUser-35</t>
-  </si>
-  <si>
-    <t>user.testAuto043</t>
-  </si>
-  <si>
-    <t>user.testAuto044</t>
-  </si>
-  <si>
-    <t>user.testAuto045</t>
-  </si>
-  <si>
-    <t>user.testAuto046</t>
-  </si>
-  <si>
-    <t>user.testAuto047</t>
-  </si>
-  <si>
-    <t>user.testAuto048</t>
-  </si>
-  <si>
-    <t>userEdit.auto36</t>
-  </si>
-  <si>
-    <t>userEdit.auto37</t>
-  </si>
-  <si>
-    <t>userEdit.auto38</t>
-  </si>
-  <si>
-    <t>userEdit.auto39</t>
-  </si>
-  <si>
-    <t>userEdit.auto40</t>
-  </si>
-  <si>
-    <t>userPass.auto35</t>
-  </si>
-  <si>
-    <t>userPass.auto36</t>
-  </si>
-  <si>
-    <t>userPass.auto37</t>
-  </si>
-  <si>
-    <t>userPass.auto38</t>
-  </si>
-  <si>
-    <t>userPass.auto39</t>
-  </si>
-  <si>
-    <t>TestUser-36</t>
-  </si>
-  <si>
-    <t>TestUser-37</t>
-  </si>
-  <si>
-    <t>TestUser-38</t>
-  </si>
-  <si>
-    <t>TestUser-39</t>
-  </si>
-  <si>
-    <t>TestUser-40</t>
+    <t>TestUser-45</t>
+  </si>
+  <si>
+    <t>UserTest-55</t>
+  </si>
+  <si>
+    <t>UserTest-56</t>
+  </si>
+  <si>
+    <t>UserTest-57</t>
+  </si>
+  <si>
+    <t>UserTest-58</t>
+  </si>
+  <si>
+    <t>UserTest-59</t>
+  </si>
+  <si>
+    <t>UserTest-60</t>
+  </si>
+  <si>
+    <t>user.testAuto055</t>
+  </si>
+  <si>
+    <t>user.testAuto056</t>
+  </si>
+  <si>
+    <t>user.testAuto057</t>
+  </si>
+  <si>
+    <t>user.testAuto058</t>
+  </si>
+  <si>
+    <t>user.testAuto059</t>
+  </si>
+  <si>
+    <t>user.testAuto060</t>
+  </si>
+  <si>
+    <t>TestUser-46</t>
+  </si>
+  <si>
+    <t>TestUser-47</t>
+  </si>
+  <si>
+    <t>TestUser-48</t>
+  </si>
+  <si>
+    <t>TestUser-49</t>
+  </si>
+  <si>
+    <t>TestUser-50</t>
+  </si>
+  <si>
+    <t>userEdit.auto46</t>
+  </si>
+  <si>
+    <t>userEdit.auto47</t>
+  </si>
+  <si>
+    <t>userEdit.auto48</t>
+  </si>
+  <si>
+    <t>userEdit.auto49</t>
+  </si>
+  <si>
+    <t>userEdit.auto50</t>
+  </si>
+  <si>
+    <t>userPass.auto45</t>
+  </si>
+  <si>
+    <t>userPass.auto46</t>
+  </si>
+  <si>
+    <t>userPass.auto47</t>
+  </si>
+  <si>
+    <t>userPass.auto48</t>
+  </si>
+  <si>
+    <t>userPass.auto49</t>
   </si>
   <si>
     <t>UserTest-43</t>
@@ -204,40 +222,22 @@
     <t>UserTest-48</t>
   </si>
   <si>
-    <t>user_logintest.auto31</t>
-  </si>
-  <si>
-    <t>UserTest-31</t>
-  </si>
-  <si>
-    <t>UserTest-32</t>
-  </si>
-  <si>
-    <t>UserTest-33</t>
-  </si>
-  <si>
-    <t>UserTest-34</t>
-  </si>
-  <si>
-    <t>UserTest-35</t>
-  </si>
-  <si>
-    <t>UserTest-36</t>
-  </si>
-  <si>
-    <t>user_logintest.auto32</t>
-  </si>
-  <si>
-    <t>user_logintest.auto33</t>
-  </si>
-  <si>
-    <t>user_logintest.auto34</t>
-  </si>
-  <si>
-    <t>user_logintest.auto35</t>
-  </si>
-  <si>
-    <t>user_logintest.auto36</t>
+    <t>user_logintest.auto43</t>
+  </si>
+  <si>
+    <t>user_logintest.auto44</t>
+  </si>
+  <si>
+    <t>user_logintest.auto45</t>
+  </si>
+  <si>
+    <t>user_logintest.auto46</t>
+  </si>
+  <si>
+    <t>user_logintest.auto47</t>
+  </si>
+  <si>
+    <t>user_logintest.auto48</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,16 +606,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>9800000021</v>
+        <v>9800000033</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -626,16 +626,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>9800000022</v>
+        <v>9800000034</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -646,16 +646,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>9800000023</v>
+        <v>9800000035</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -666,16 +666,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>9800000024</v>
+        <v>9800000036</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>9800000025</v>
+        <v>9800000037</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -706,16 +706,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>9800000026</v>
+        <v>9800000038</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -736,7 +736,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,16 +776,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>9800000015</v>
+        <v>9800000020</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>9800000016</v>
+        <v>9800000020</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -834,16 +834,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>9800000017</v>
+        <v>9800000020</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -863,16 +863,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>9800000018</v>
+        <v>9800000020</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -892,16 +892,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>9800000019</v>
+        <v>9800000020</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -931,11 +931,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -970,10 +971,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>9800000010</v>
+        <v>9800000015</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -987,16 +988,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>9800000011</v>
+        <v>9800000016</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1010,16 +1011,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>9800000012</v>
+        <v>9800000017</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1033,16 +1034,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>9800000013</v>
+        <v>9800000018</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1056,16 +1057,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>9800000014</v>
+        <v>9800000019</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1092,7 +1093,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,16 +1125,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>9800000015</v>
+        <v>9800000021</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1144,7 +1145,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1153,7 +1154,7 @@
         <v>65</v>
       </c>
       <c r="D3">
-        <v>9800000016</v>
+        <v>9800000022</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1164,7 +1165,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1173,7 +1174,7 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>9800000017</v>
+        <v>9800000023</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1184,7 +1185,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1193,7 +1194,7 @@
         <v>67</v>
       </c>
       <c r="D5">
-        <v>9800000018</v>
+        <v>9800000024</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1204,7 +1205,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1213,7 +1214,7 @@
         <v>68</v>
       </c>
       <c r="D6">
-        <v>9800000019</v>
+        <v>9800000025</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1224,7 +1225,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1233,7 +1234,7 @@
         <v>69</v>
       </c>
       <c r="D7">
-        <v>9800000020</v>
+        <v>9800000026</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>

--- a/TestData/MemberManagement/TestMemberManagement.xlsx
+++ b/TestData/MemberManagement/TestMemberManagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\MemberManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4D18F5-E386-4F5F-9D7D-5560D3D4D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB318F-F129-45B5-9887-17AD3C415F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createUser" sheetId="1" r:id="rId1"/>
@@ -120,124 +120,124 @@
     <t>Karigar</t>
   </si>
   <si>
-    <t>TestUser-45</t>
-  </si>
-  <si>
-    <t>UserTest-55</t>
-  </si>
-  <si>
-    <t>UserTest-56</t>
-  </si>
-  <si>
-    <t>UserTest-57</t>
-  </si>
-  <si>
-    <t>UserTest-58</t>
-  </si>
-  <si>
-    <t>UserTest-59</t>
-  </si>
-  <si>
-    <t>UserTest-60</t>
-  </si>
-  <si>
-    <t>user.testAuto055</t>
-  </si>
-  <si>
-    <t>user.testAuto056</t>
-  </si>
-  <si>
-    <t>user.testAuto057</t>
-  </si>
-  <si>
-    <t>user.testAuto058</t>
-  </si>
-  <si>
-    <t>user.testAuto059</t>
-  </si>
-  <si>
-    <t>user.testAuto060</t>
-  </si>
-  <si>
-    <t>TestUser-46</t>
-  </si>
-  <si>
-    <t>TestUser-47</t>
-  </si>
-  <si>
-    <t>TestUser-48</t>
-  </si>
-  <si>
-    <t>TestUser-49</t>
-  </si>
-  <si>
-    <t>TestUser-50</t>
-  </si>
-  <si>
-    <t>userEdit.auto46</t>
-  </si>
-  <si>
-    <t>userEdit.auto47</t>
-  </si>
-  <si>
-    <t>userEdit.auto48</t>
-  </si>
-  <si>
-    <t>userEdit.auto49</t>
-  </si>
-  <si>
-    <t>userEdit.auto50</t>
-  </si>
-  <si>
-    <t>userPass.auto45</t>
-  </si>
-  <si>
-    <t>userPass.auto46</t>
-  </si>
-  <si>
-    <t>userPass.auto47</t>
-  </si>
-  <si>
-    <t>userPass.auto48</t>
-  </si>
-  <si>
-    <t>userPass.auto49</t>
-  </si>
-  <si>
-    <t>UserTest-43</t>
-  </si>
-  <si>
-    <t>UserTest-44</t>
-  </si>
-  <si>
-    <t>UserTest-45</t>
-  </si>
-  <si>
-    <t>UserTest-46</t>
-  </si>
-  <si>
-    <t>UserTest-47</t>
-  </si>
-  <si>
-    <t>UserTest-48</t>
-  </si>
-  <si>
-    <t>user_logintest.auto43</t>
-  </si>
-  <si>
-    <t>user_logintest.auto44</t>
-  </si>
-  <si>
-    <t>user_logintest.auto45</t>
-  </si>
-  <si>
-    <t>user_logintest.auto46</t>
-  </si>
-  <si>
-    <t>user_logintest.auto47</t>
-  </si>
-  <si>
-    <t>user_logintest.auto48</t>
+    <t>TestUser-65</t>
+  </si>
+  <si>
+    <t>UserTest-79</t>
+  </si>
+  <si>
+    <t>user.testAuto079</t>
+  </si>
+  <si>
+    <t>UserTest-80</t>
+  </si>
+  <si>
+    <t>UserTest-81</t>
+  </si>
+  <si>
+    <t>UserTest-82</t>
+  </si>
+  <si>
+    <t>UserTest-83</t>
+  </si>
+  <si>
+    <t>UserTest-84</t>
+  </si>
+  <si>
+    <t>user.testAuto080</t>
+  </si>
+  <si>
+    <t>user.testAuto081</t>
+  </si>
+  <si>
+    <t>user.testAuto082</t>
+  </si>
+  <si>
+    <t>user.testAuto083</t>
+  </si>
+  <si>
+    <t>user.testAuto084</t>
+  </si>
+  <si>
+    <t>TestUser-66</t>
+  </si>
+  <si>
+    <t>TestUser-67</t>
+  </si>
+  <si>
+    <t>TestUser-68</t>
+  </si>
+  <si>
+    <t>TestUser-69</t>
+  </si>
+  <si>
+    <t>TestUser-70</t>
+  </si>
+  <si>
+    <t>userEdit.auto66</t>
+  </si>
+  <si>
+    <t>userEdit.auto67</t>
+  </si>
+  <si>
+    <t>userEdit.auto68</t>
+  </si>
+  <si>
+    <t>userEdit.auto69</t>
+  </si>
+  <si>
+    <t>userEdit.auto70</t>
+  </si>
+  <si>
+    <t>userPass.auto65</t>
+  </si>
+  <si>
+    <t>userPass.auto66</t>
+  </si>
+  <si>
+    <t>userPass.auto67</t>
+  </si>
+  <si>
+    <t>userPass.auto68</t>
+  </si>
+  <si>
+    <t>userPass.auto69</t>
+  </si>
+  <si>
+    <t>UserTest-67</t>
+  </si>
+  <si>
+    <t>UserTest-68</t>
+  </si>
+  <si>
+    <t>UserTest-69</t>
+  </si>
+  <si>
+    <t>UserTest-70</t>
+  </si>
+  <si>
+    <t>UserTest-71</t>
+  </si>
+  <si>
+    <t>UserTest-72</t>
+  </si>
+  <si>
+    <t>user_logintest.auto67</t>
+  </si>
+  <si>
+    <t>user_logintest.auto68</t>
+  </si>
+  <si>
+    <t>user_logintest.auto69</t>
+  </si>
+  <si>
+    <t>user_logintest.auto70</t>
+  </si>
+  <si>
+    <t>user_logintest.auto71</t>
+  </si>
+  <si>
+    <t>user_logintest.auto72</t>
   </si>
 </sst>
 </file>
@@ -574,12 +574,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
@@ -612,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>9800000033</v>
+        <v>9800000039</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -626,7 +627,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -635,7 +636,7 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>9800000034</v>
+        <v>9800000040</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -646,7 +647,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -655,7 +656,7 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>9800000035</v>
+        <v>9800000041</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -666,7 +667,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -675,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>9800000036</v>
+        <v>9800000042</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -686,7 +687,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -695,7 +696,7 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>9800000037</v>
+        <v>9800000043</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -706,7 +707,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -715,7 +716,7 @@
         <v>42</v>
       </c>
       <c r="D7">
-        <v>9800000038</v>
+        <v>9800000044</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -736,11 +737,13 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -785,7 +788,7 @@
         <v>48</v>
       </c>
       <c r="D2">
-        <v>9800000020</v>
+        <v>9800000021</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -814,7 +817,7 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>9800000020</v>
+        <v>9800000022</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -843,7 +846,7 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>9800000020</v>
+        <v>9800000023</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -872,7 +875,7 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>9800000020</v>
+        <v>9800000024</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -901,7 +904,7 @@
         <v>52</v>
       </c>
       <c r="D6">
-        <v>9800000020</v>
+        <v>9800000025</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -931,11 +934,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
@@ -974,7 +978,7 @@
         <v>53</v>
       </c>
       <c r="D2">
-        <v>9800000015</v>
+        <v>9800000020</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -997,7 +1001,7 @@
         <v>54</v>
       </c>
       <c r="D3">
-        <v>9800000016</v>
+        <v>9800000021</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1020,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="D4">
-        <v>9800000017</v>
+        <v>9800000022</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1043,7 +1047,7 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>9800000018</v>
+        <v>9800000023</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1066,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="D6">
-        <v>9800000019</v>
+        <v>9800000024</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1092,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFB5174-A8F4-42C0-8E0D-2AF5D3D57C0C}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1138,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>9800000021</v>
+        <v>9800000027</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1154,7 +1158,7 @@
         <v>65</v>
       </c>
       <c r="D3">
-        <v>9800000022</v>
+        <v>9800000028</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1174,7 +1178,7 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>9800000023</v>
+        <v>9800000029</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1194,7 +1198,7 @@
         <v>67</v>
       </c>
       <c r="D5">
-        <v>9800000024</v>
+        <v>9800000030</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1214,7 +1218,7 @@
         <v>68</v>
       </c>
       <c r="D6">
-        <v>9800000025</v>
+        <v>9800000031</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1234,7 +1238,7 @@
         <v>69</v>
       </c>
       <c r="D7">
-        <v>9800000026</v>
+        <v>9800000032</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>

--- a/TestData/MemberManagement/TestMemberManagement.xlsx
+++ b/TestData/MemberManagement/TestMemberManagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\MemberManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB318F-F129-45B5-9887-17AD3C415F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849EE22-24D5-4E30-825D-15EA452A68A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createUser" sheetId="1" r:id="rId1"/>
@@ -120,124 +120,124 @@
     <t>Karigar</t>
   </si>
   <si>
-    <t>TestUser-65</t>
-  </si>
-  <si>
-    <t>UserTest-79</t>
-  </si>
-  <si>
-    <t>user.testAuto079</t>
-  </si>
-  <si>
-    <t>UserTest-80</t>
-  </si>
-  <si>
-    <t>UserTest-81</t>
-  </si>
-  <si>
-    <t>UserTest-82</t>
-  </si>
-  <si>
-    <t>UserTest-83</t>
-  </si>
-  <si>
-    <t>UserTest-84</t>
-  </si>
-  <si>
-    <t>user.testAuto080</t>
-  </si>
-  <si>
-    <t>user.testAuto081</t>
-  </si>
-  <si>
-    <t>user.testAuto082</t>
-  </si>
-  <si>
-    <t>user.testAuto083</t>
-  </si>
-  <si>
-    <t>user.testAuto084</t>
-  </si>
-  <si>
-    <t>TestUser-66</t>
-  </si>
-  <si>
-    <t>TestUser-67</t>
-  </si>
-  <si>
-    <t>TestUser-68</t>
-  </si>
-  <si>
-    <t>TestUser-69</t>
-  </si>
-  <si>
-    <t>TestUser-70</t>
-  </si>
-  <si>
-    <t>userEdit.auto66</t>
-  </si>
-  <si>
-    <t>userEdit.auto67</t>
-  </si>
-  <si>
-    <t>userEdit.auto68</t>
-  </si>
-  <si>
-    <t>userEdit.auto69</t>
-  </si>
-  <si>
-    <t>userEdit.auto70</t>
-  </si>
-  <si>
-    <t>userPass.auto65</t>
-  </si>
-  <si>
-    <t>userPass.auto66</t>
-  </si>
-  <si>
-    <t>userPass.auto67</t>
-  </si>
-  <si>
-    <t>userPass.auto68</t>
-  </si>
-  <si>
-    <t>userPass.auto69</t>
-  </si>
-  <si>
-    <t>UserTest-67</t>
-  </si>
-  <si>
-    <t>UserTest-68</t>
-  </si>
-  <si>
-    <t>UserTest-69</t>
-  </si>
-  <si>
-    <t>UserTest-70</t>
-  </si>
-  <si>
-    <t>UserTest-71</t>
-  </si>
-  <si>
-    <t>UserTest-72</t>
-  </si>
-  <si>
-    <t>user_logintest.auto67</t>
-  </si>
-  <si>
-    <t>user_logintest.auto68</t>
-  </si>
-  <si>
-    <t>user_logintest.auto69</t>
-  </si>
-  <si>
-    <t>user_logintest.auto70</t>
-  </si>
-  <si>
-    <t>user_logintest.auto71</t>
-  </si>
-  <si>
-    <t>user_logintest.auto72</t>
+    <t>TestUser-85</t>
+  </si>
+  <si>
+    <t>UserTest-103</t>
+  </si>
+  <si>
+    <t>UserTest-104</t>
+  </si>
+  <si>
+    <t>UserTest-105</t>
+  </si>
+  <si>
+    <t>UserTest-106</t>
+  </si>
+  <si>
+    <t>UserTest-107</t>
+  </si>
+  <si>
+    <t>UserTest-108</t>
+  </si>
+  <si>
+    <t>user.testAuto103</t>
+  </si>
+  <si>
+    <t>user.testAuto104</t>
+  </si>
+  <si>
+    <t>user.testAuto105</t>
+  </si>
+  <si>
+    <t>user.testAuto106</t>
+  </si>
+  <si>
+    <t>user.testAuto107</t>
+  </si>
+  <si>
+    <t>user.testAuto108</t>
+  </si>
+  <si>
+    <t>TestUser-86</t>
+  </si>
+  <si>
+    <t>TestUser-87</t>
+  </si>
+  <si>
+    <t>TestUser-88</t>
+  </si>
+  <si>
+    <t>TestUser-89</t>
+  </si>
+  <si>
+    <t>TestUser-90</t>
+  </si>
+  <si>
+    <t>userEdit.auto86</t>
+  </si>
+  <si>
+    <t>userEdit.auto87</t>
+  </si>
+  <si>
+    <t>userEdit.auto88</t>
+  </si>
+  <si>
+    <t>userEdit.auto89</t>
+  </si>
+  <si>
+    <t>userEdit.auto90</t>
+  </si>
+  <si>
+    <t>userPass.auto85</t>
+  </si>
+  <si>
+    <t>userPass.auto86</t>
+  </si>
+  <si>
+    <t>userPass.auto87</t>
+  </si>
+  <si>
+    <t>userPass.auto88</t>
+  </si>
+  <si>
+    <t>userPass.auto89</t>
+  </si>
+  <si>
+    <t>UserTest-91</t>
+  </si>
+  <si>
+    <t>UserTest-92</t>
+  </si>
+  <si>
+    <t>UserTest-93</t>
+  </si>
+  <si>
+    <t>UserTest-94</t>
+  </si>
+  <si>
+    <t>UserTest-95</t>
+  </si>
+  <si>
+    <t>UserTest-96</t>
+  </si>
+  <si>
+    <t>user_logintest.auto91</t>
+  </si>
+  <si>
+    <t>user_logintest.auto92</t>
+  </si>
+  <si>
+    <t>user_logintest.auto93</t>
+  </si>
+  <si>
+    <t>user_logintest.auto94</t>
+  </si>
+  <si>
+    <t>user_logintest.auto95</t>
+  </si>
+  <si>
+    <t>user_logintest.auto96</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>9800000039</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -737,13 +737,13 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -934,12 +934,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
@@ -1096,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFB5174-A8F4-42C0-8E0D-2AF5D3D57C0C}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
